--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125011a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/furto/cv125011a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -49,16 +49,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -512,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -588,31 +582,52 @@
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>1.75958473227085</v>
+      </c>
+      <c r="C5">
+        <v>1.850753064008581</v>
+      </c>
+      <c r="D5">
+        <v>2.153145716045675</v>
+      </c>
+      <c r="E5">
+        <v>2.163105701323901</v>
+      </c>
+      <c r="F5">
+        <v>2.298414398668672</v>
+      </c>
+      <c r="G5">
+        <v>4.496653914055537</v>
+      </c>
+      <c r="H5">
+        <v>2.352127932339679</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1.75958473227085</v>
+        <v>4.969856256810918</v>
       </c>
       <c r="C6">
-        <v>1.850753064008581</v>
+        <v>5.148064114735175</v>
       </c>
       <c r="D6">
-        <v>2.153145716045675</v>
+        <v>7.133120471845563</v>
       </c>
       <c r="E6">
-        <v>2.163105701323901</v>
+        <v>7.127720478344314</v>
       </c>
       <c r="F6">
-        <v>2.298414398668672</v>
+        <v>6.030944013849914</v>
       </c>
       <c r="G6">
-        <v>4.496653914055537</v>
+        <v>13.54834437339084</v>
       </c>
       <c r="H6">
-        <v>2.352127932339679</v>
+        <v>6.426528682321766</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -620,56 +635,77 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>4.969856256810918</v>
+        <v>4.246214901460063</v>
       </c>
       <c r="C7">
-        <v>5.148064114735175</v>
+        <v>4.628037794023174</v>
       </c>
       <c r="D7">
-        <v>7.133120471845563</v>
+        <v>5.032852858997462</v>
       </c>
       <c r="E7">
-        <v>7.127720478344314</v>
+        <v>7.598924535034143</v>
       </c>
       <c r="F7">
-        <v>6.030944013849914</v>
+        <v>4.392531055259746</v>
       </c>
       <c r="G7">
-        <v>13.54834437339084</v>
+        <v>10.90417911029242</v>
       </c>
       <c r="H7">
-        <v>6.426528682321766</v>
+        <v>4.684893918455495</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>9.382091137964824</v>
+      </c>
+      <c r="C8">
+        <v>10.09376138246377</v>
+      </c>
+      <c r="D8">
+        <v>11.50612648784827</v>
+      </c>
+      <c r="E8">
+        <v>13.60970023399001</v>
+      </c>
+      <c r="F8">
+        <v>9.34230509771867</v>
+      </c>
+      <c r="G8">
+        <v>21.3633422350006</v>
+      </c>
+      <c r="H8">
+        <v>9.746570426568487</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9">
-        <v>4.246214901460063</v>
+        <v>10.25094130198413</v>
       </c>
       <c r="C9">
-        <v>4.628037794023174</v>
+        <v>12.32030149365979</v>
       </c>
       <c r="D9">
-        <v>5.032852858997462</v>
+        <v>10.92508359418767</v>
       </c>
       <c r="E9">
-        <v>7.598924535034143</v>
+        <v>14.05788650503126</v>
       </c>
       <c r="F9">
-        <v>4.392531055259746</v>
+        <v>9.908104185901282</v>
       </c>
       <c r="G9">
-        <v>10.90417911029242</v>
+        <v>26.34879648508033</v>
       </c>
       <c r="H9">
-        <v>4.684893918455495</v>
+        <v>10.92412349985091</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -677,25 +713,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>9.382091137964824</v>
+        <v>11.6178157490132</v>
       </c>
       <c r="C10">
-        <v>10.09376138246377</v>
+        <v>10.92430005633011</v>
       </c>
       <c r="D10">
-        <v>11.50612648784827</v>
+        <v>15.03041923272872</v>
       </c>
       <c r="E10">
-        <v>13.60970023399001</v>
+        <v>18.34016635676467</v>
       </c>
       <c r="F10">
-        <v>9.34230509771867</v>
+        <v>11.70039659410515</v>
       </c>
       <c r="G10">
-        <v>21.3633422350006</v>
+        <v>34.26866120854288</v>
       </c>
       <c r="H10">
-        <v>9.746570426568487</v>
+        <v>11.8074048166218</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -703,25 +739,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>10.25094130198413</v>
+        <v>10.37050228768565</v>
       </c>
       <c r="C11">
-        <v>12.32030149365979</v>
+        <v>13.76563172951093</v>
       </c>
       <c r="D11">
-        <v>10.92508359418767</v>
+        <v>12.33406079044742</v>
       </c>
       <c r="E11">
-        <v>14.05788650503126</v>
+        <v>20.54808675620845</v>
       </c>
       <c r="F11">
-        <v>9.908104185901282</v>
+        <v>10.7824934819999</v>
       </c>
       <c r="G11">
-        <v>26.34879648508033</v>
+        <v>31.01442391514821</v>
       </c>
       <c r="H11">
-        <v>10.92412349985091</v>
+        <v>12.2133863481211</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -729,25 +765,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>11.6178157490132</v>
+        <v>7.41193131675433</v>
       </c>
       <c r="C12">
-        <v>10.92430005633011</v>
+        <v>8.176121445180113</v>
       </c>
       <c r="D12">
-        <v>15.03041923272872</v>
+        <v>8.594686730101927</v>
       </c>
       <c r="E12">
-        <v>18.34016635676467</v>
+        <v>15.3961841044608</v>
       </c>
       <c r="F12">
-        <v>11.70039659410515</v>
+        <v>7.495261294194384</v>
       </c>
       <c r="G12">
-        <v>34.26866120854288</v>
+        <v>19.09672528812513</v>
       </c>
       <c r="H12">
-        <v>11.8074048166218</v>
+        <v>8.279880132770771</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -755,25 +791,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>10.37050228768565</v>
+        <v>13.62597002866928</v>
       </c>
       <c r="C13">
-        <v>13.76563172951093</v>
+        <v>17.48787919462336</v>
       </c>
       <c r="D13">
-        <v>12.33406079044742</v>
+        <v>15.3780621860826</v>
       </c>
       <c r="E13">
-        <v>20.54808675620845</v>
+        <v>20.52529652053551</v>
       </c>
       <c r="F13">
-        <v>10.7824934819999</v>
+        <v>15.897966760197</v>
       </c>
       <c r="G13">
-        <v>31.01442391514821</v>
+        <v>36.22083945756161</v>
       </c>
       <c r="H13">
-        <v>12.2133863481211</v>
+        <v>15.10359635454746</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -781,25 +817,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>7.41193131675433</v>
+        <v>11.58666592259684</v>
       </c>
       <c r="C14">
-        <v>8.176121445180113</v>
+        <v>11.02998327347421</v>
       </c>
       <c r="D14">
-        <v>8.594686730101927</v>
+        <v>14.48704503877741</v>
       </c>
       <c r="E14">
-        <v>15.3961841044608</v>
+        <v>17.55997214257835</v>
       </c>
       <c r="F14">
-        <v>7.495261294194384</v>
+        <v>12.76909220099607</v>
       </c>
       <c r="G14">
-        <v>19.09672528812513</v>
+        <v>26.37121282910224</v>
       </c>
       <c r="H14">
-        <v>8.279880132770771</v>
+        <v>10.96679344180412</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -807,25 +843,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>13.62597002866928</v>
+        <v>3.931747589445676</v>
       </c>
       <c r="C15">
-        <v>17.48787919462336</v>
+        <v>3.715930389643063</v>
       </c>
       <c r="D15">
-        <v>15.3780621860826</v>
+        <v>4.94187792546608</v>
       </c>
       <c r="E15">
-        <v>20.52529652053551</v>
+        <v>4.630545638008818</v>
       </c>
       <c r="F15">
-        <v>15.897966760197</v>
+        <v>4.501882076744863</v>
       </c>
       <c r="G15">
-        <v>36.22083945756161</v>
+        <v>8.300062348238841</v>
       </c>
       <c r="H15">
-        <v>15.10359635454746</v>
+        <v>4.495068625662619</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -833,25 +869,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>11.58666592259684</v>
+        <v>18.22064643945687</v>
       </c>
       <c r="C16">
-        <v>11.02998327347421</v>
+        <v>16.3620276310379</v>
       </c>
       <c r="D16">
-        <v>14.48704503877741</v>
+        <v>21.55429292210562</v>
       </c>
       <c r="E16">
-        <v>17.55997214257835</v>
+        <v>19.65568877783992</v>
       </c>
       <c r="F16">
-        <v>12.76909220099607</v>
+        <v>19.46520602197633</v>
       </c>
       <c r="G16">
-        <v>26.37121282910224</v>
+        <v>36.64330757225375</v>
       </c>
       <c r="H16">
-        <v>10.96679344180412</v>
+        <v>18.70338290076825</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -859,25 +895,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>3.931747589445676</v>
+        <v>13.24861858698746</v>
       </c>
       <c r="C17">
-        <v>3.715930389643063</v>
+        <v>11.86571226953535</v>
       </c>
       <c r="D17">
-        <v>4.94187792546608</v>
+        <v>17.98539717167304</v>
       </c>
       <c r="E17">
-        <v>4.630545638008818</v>
+        <v>19.16926460654904</v>
       </c>
       <c r="F17">
-        <v>4.501882076744863</v>
+        <v>11.95479068122329</v>
       </c>
       <c r="G17">
-        <v>8.300062348238841</v>
+        <v>24.7202001315532</v>
       </c>
       <c r="H17">
-        <v>4.495068625662619</v>
+        <v>12.50094115117916</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -885,25 +921,25 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>18.22064643945687</v>
+        <v>7.062551559162407</v>
       </c>
       <c r="C18">
-        <v>16.3620276310379</v>
+        <v>7.832487651510765</v>
       </c>
       <c r="D18">
-        <v>21.55429292210562</v>
+        <v>7.83408653903675</v>
       </c>
       <c r="E18">
-        <v>19.65568877783992</v>
+        <v>9.929800719248107</v>
       </c>
       <c r="F18">
-        <v>19.46520602197633</v>
+        <v>7.747977581929163</v>
       </c>
       <c r="G18">
-        <v>36.64330757225375</v>
+        <v>30.19387450342781</v>
       </c>
       <c r="H18">
-        <v>18.70338290076825</v>
+        <v>7.37425808939779</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -911,25 +947,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>13.24861858698746</v>
+        <v>10.87804457948651</v>
       </c>
       <c r="C19">
-        <v>11.86571226953535</v>
+        <v>12.53084188154554</v>
       </c>
       <c r="D19">
-        <v>17.98539717167304</v>
+        <v>13.34722117763416</v>
       </c>
       <c r="E19">
-        <v>19.16926460654904</v>
+        <v>16.22487413759952</v>
       </c>
       <c r="F19">
-        <v>11.95479068122329</v>
+        <v>11.08534207446318</v>
       </c>
       <c r="G19">
-        <v>24.7202001315532</v>
+        <v>24.54008689576889</v>
       </c>
       <c r="H19">
-        <v>12.50094115117916</v>
+        <v>11.76469410081922</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -937,25 +973,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>7.062551559162407</v>
+        <v>11.57071996983264</v>
       </c>
       <c r="C20">
-        <v>7.832487651510765</v>
+        <v>13.44731167092876</v>
       </c>
       <c r="D20">
-        <v>7.83408653903675</v>
+        <v>13.40519077333414</v>
       </c>
       <c r="E20">
-        <v>9.929800719248107</v>
+        <v>16.54736317672505</v>
       </c>
       <c r="F20">
-        <v>7.747977581929163</v>
+        <v>13.31418011124837</v>
       </c>
       <c r="G20">
-        <v>30.19387450342781</v>
+        <v>26.05022619748356</v>
       </c>
       <c r="H20">
-        <v>7.37425808939779</v>
+        <v>13.90683109204795</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -963,25 +999,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>10.87804457948651</v>
+        <v>6.007655858071043</v>
       </c>
       <c r="C21">
-        <v>12.53084188154554</v>
+        <v>6.272655496967147</v>
       </c>
       <c r="D21">
-        <v>13.34722117763416</v>
+        <v>7.946914861166987</v>
       </c>
       <c r="E21">
-        <v>16.22487413759952</v>
+        <v>8.242197556063633</v>
       </c>
       <c r="F21">
-        <v>11.08534207446318</v>
+        <v>6.887464706274426</v>
       </c>
       <c r="G21">
-        <v>24.54008689576889</v>
+        <v>16.49434316747609</v>
       </c>
       <c r="H21">
-        <v>11.76469410081922</v>
+        <v>7.631930563774321</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -989,25 +1025,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>11.57071996983264</v>
+        <v>11.04112786947378</v>
       </c>
       <c r="C22">
-        <v>13.44731167092876</v>
+        <v>11.65830556295551</v>
       </c>
       <c r="D22">
-        <v>13.40519077333414</v>
+        <v>16.39052687376288</v>
       </c>
       <c r="E22">
-        <v>16.54736317672505</v>
+        <v>20.88984102967698</v>
       </c>
       <c r="F22">
-        <v>13.31418011124837</v>
+        <v>11.84058717595759</v>
       </c>
       <c r="G22">
-        <v>26.05022619748356</v>
+        <v>30.37580704310769</v>
       </c>
       <c r="H22">
-        <v>13.90683109204795</v>
+        <v>12.5218810103435</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1015,25 +1051,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>6.007655858071043</v>
+        <v>9.408034538713478</v>
       </c>
       <c r="C23">
-        <v>6.272655496967147</v>
+        <v>11.56172657233819</v>
       </c>
       <c r="D23">
-        <v>7.946914861166987</v>
+        <v>11.90642386040686</v>
       </c>
       <c r="E23">
-        <v>8.242197556063633</v>
+        <v>15.8381360053173</v>
       </c>
       <c r="F23">
-        <v>6.887464706274426</v>
+        <v>11.00533597412283</v>
       </c>
       <c r="G23">
-        <v>16.49434316747609</v>
+        <v>27.0193237421309</v>
       </c>
       <c r="H23">
-        <v>7.631930563774321</v>
+        <v>11.11414011041753</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1041,25 +1077,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>11.04112786947378</v>
+        <v>5.713061498315981</v>
       </c>
       <c r="C24">
-        <v>11.65830556295551</v>
+        <v>5.884223667456481</v>
       </c>
       <c r="D24">
-        <v>16.39052687376288</v>
+        <v>6.906604224751605</v>
       </c>
       <c r="E24">
-        <v>20.88984102967698</v>
+        <v>9.716167740600074</v>
       </c>
       <c r="F24">
-        <v>11.84058717595759</v>
+        <v>5.661844465308475</v>
       </c>
       <c r="G24">
-        <v>30.37580704310769</v>
+        <v>6.962482957040336</v>
       </c>
       <c r="H24">
-        <v>12.5218810103435</v>
+        <v>6.845040827716383</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1067,25 +1103,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>9.408034538713478</v>
+        <v>2.80252747901296</v>
       </c>
       <c r="C25">
-        <v>11.56172657233819</v>
+        <v>2.983329448035904</v>
       </c>
       <c r="D25">
-        <v>11.90642386040686</v>
+        <v>3.547778496247298</v>
       </c>
       <c r="E25">
-        <v>15.8381360053173</v>
+        <v>3.452456354820974</v>
       </c>
       <c r="F25">
-        <v>11.00533597412283</v>
+        <v>3.610144530965433</v>
       </c>
       <c r="G25">
-        <v>27.0193237421309</v>
+        <v>6.865943916551277</v>
       </c>
       <c r="H25">
-        <v>11.11414011041753</v>
+        <v>3.833526704838612</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1093,25 +1129,25 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>5.713061498315981</v>
+        <v>4.96468699791511</v>
       </c>
       <c r="C26">
-        <v>5.884223667456481</v>
+        <v>5.373954698085082</v>
       </c>
       <c r="D26">
-        <v>6.906604224751605</v>
+        <v>5.985254120408024</v>
       </c>
       <c r="E26">
-        <v>9.716167740600074</v>
+        <v>6.452760791101363</v>
       </c>
       <c r="F26">
-        <v>5.661844465308475</v>
+        <v>5.304848624859897</v>
       </c>
       <c r="G26">
-        <v>6.962482957040336</v>
+        <v>11.04740638279939</v>
       </c>
       <c r="H26">
-        <v>6.845040827716383</v>
+        <v>5.413504630710695</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1119,25 +1155,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>2.80252747901296</v>
+        <v>10.31238846034986</v>
       </c>
       <c r="C27">
-        <v>2.983329448035904</v>
+        <v>12.72139425428623</v>
       </c>
       <c r="D27">
-        <v>3.547778496247298</v>
+        <v>11.65750198153678</v>
       </c>
       <c r="E27">
-        <v>3.452456354820974</v>
+        <v>14.42512815067733</v>
       </c>
       <c r="F27">
-        <v>3.610144530965433</v>
+        <v>10.62309299401724</v>
       </c>
       <c r="G27">
-        <v>6.865943916551277</v>
+        <v>21.80206762205889</v>
       </c>
       <c r="H27">
-        <v>3.833526704838612</v>
+        <v>10.59616048358211</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1145,25 +1181,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>4.96468699791511</v>
+        <v>5.68897545118847</v>
       </c>
       <c r="C28">
-        <v>5.373954698085082</v>
+        <v>6.564273909056765</v>
       </c>
       <c r="D28">
-        <v>5.985254120408024</v>
+        <v>7.25009095885394</v>
       </c>
       <c r="E28">
-        <v>6.452760791101363</v>
+        <v>6.79738163436769</v>
       </c>
       <c r="F28">
-        <v>5.304848624859897</v>
+        <v>8.451920740335813</v>
       </c>
       <c r="G28">
-        <v>11.04740638279939</v>
+        <v>14.14532223535165</v>
       </c>
       <c r="H28">
-        <v>5.413504630710695</v>
+        <v>9.1813264279854</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1171,25 +1207,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>10.31238846034986</v>
+        <v>4.233010198189796</v>
       </c>
       <c r="C29">
-        <v>12.72139425428623</v>
+        <v>4.366128229037322</v>
       </c>
       <c r="D29">
-        <v>11.65750198153678</v>
+        <v>5.521347102167582</v>
       </c>
       <c r="E29">
-        <v>14.42512815067733</v>
+        <v>4.908533631053388</v>
       </c>
       <c r="F29">
-        <v>10.62309299401724</v>
+        <v>6.448306383446865</v>
       </c>
       <c r="G29">
-        <v>21.80206762205889</v>
+        <v>11.83928763143374</v>
       </c>
       <c r="H29">
-        <v>10.59616048358211</v>
+        <v>7.027200484611892</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1197,25 +1233,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>5.68897545118847</v>
+        <v>3.225546767013807</v>
       </c>
       <c r="C30">
-        <v>6.564273909056765</v>
+        <v>3.455685140891724</v>
       </c>
       <c r="D30">
-        <v>7.25009095885394</v>
+        <v>4.279804009121492</v>
       </c>
       <c r="E30">
-        <v>6.79738163436769</v>
+        <v>3.766501435368975</v>
       </c>
       <c r="F30">
-        <v>8.451920740335813</v>
+        <v>5.618186120822574</v>
       </c>
       <c r="G30">
-        <v>14.14532223535165</v>
+        <v>10.95171364921015</v>
       </c>
       <c r="H30">
-        <v>9.1813264279854</v>
+        <v>6.196165463401663</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1223,25 +1259,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>4.233010198189796</v>
+        <v>4.689438112690009</v>
       </c>
       <c r="C31">
-        <v>4.366128229037322</v>
+        <v>4.936033259589061</v>
       </c>
       <c r="D31">
-        <v>5.521347102167582</v>
+        <v>6.776856447535132</v>
       </c>
       <c r="E31">
-        <v>4.908533631053388</v>
+        <v>5.409520091245211</v>
       </c>
       <c r="F31">
-        <v>6.448306383446865</v>
+        <v>8.102720816414054</v>
       </c>
       <c r="G31">
-        <v>11.83928763143374</v>
+        <v>19.26843054345452</v>
       </c>
       <c r="H31">
-        <v>7.027200484611892</v>
+        <v>8.907273797647694</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1249,25 +1285,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>3.225546767013807</v>
+        <v>7.644424391656021</v>
       </c>
       <c r="C32">
-        <v>3.455685140891724</v>
+        <v>8.05234793760741</v>
       </c>
       <c r="D32">
-        <v>4.279804009121492</v>
+        <v>10.22186886384826</v>
       </c>
       <c r="E32">
-        <v>3.766501435368975</v>
+        <v>8.490090399352312</v>
       </c>
       <c r="F32">
-        <v>5.618186120822574</v>
+        <v>14.08194608863369</v>
       </c>
       <c r="G32">
-        <v>10.95171364921015</v>
+        <v>24.85373710371737</v>
       </c>
       <c r="H32">
-        <v>6.196165463401663</v>
+        <v>15.10089877065429</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1275,25 +1311,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>4.689438112690009</v>
+        <v>5.246257898224242</v>
       </c>
       <c r="C33">
-        <v>4.936033259589061</v>
+        <v>5.687883811077125</v>
       </c>
       <c r="D33">
-        <v>6.776856447535132</v>
+        <v>6.541696502990718</v>
       </c>
       <c r="E33">
-        <v>5.409520091245211</v>
+        <v>6.220469496123557</v>
       </c>
       <c r="F33">
-        <v>8.102720816414054</v>
+        <v>9.23195031934093</v>
       </c>
       <c r="G33">
-        <v>19.26843054345452</v>
+        <v>15.63878673752363</v>
       </c>
       <c r="H33">
-        <v>8.907273797647694</v>
+        <v>10.42076054928504</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1301,25 +1337,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>7.644424391656021</v>
+        <v>3.181191043256483</v>
       </c>
       <c r="C34">
-        <v>8.05234793760741</v>
+        <v>3.877755301180523</v>
       </c>
       <c r="D34">
-        <v>10.22186886384826</v>
+        <v>4.051746310893126</v>
       </c>
       <c r="E34">
-        <v>8.490090399352312</v>
+        <v>4.377398143238986</v>
       </c>
       <c r="F34">
-        <v>14.08194608863369</v>
+        <v>4.135602847222345</v>
       </c>
       <c r="G34">
-        <v>24.85373710371737</v>
+        <v>9.761951753932603</v>
       </c>
       <c r="H34">
-        <v>15.10089877065429</v>
+        <v>4.221545862563561</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1327,25 +1363,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>5.246257898224242</v>
+        <v>7.280576127816124</v>
       </c>
       <c r="C35">
-        <v>5.687883811077125</v>
+        <v>7.765902585115589</v>
       </c>
       <c r="D35">
-        <v>6.541696502990718</v>
+        <v>10.22033526840103</v>
       </c>
       <c r="E35">
-        <v>6.220469496123557</v>
+        <v>10.73258763288206</v>
       </c>
       <c r="F35">
-        <v>9.23195031934093</v>
+        <v>10.11177659395917</v>
       </c>
       <c r="G35">
-        <v>15.63878673752363</v>
+        <v>26.48931822885175</v>
       </c>
       <c r="H35">
-        <v>10.42076054928504</v>
+        <v>9.99215698876154</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1353,25 +1389,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>3.181191043256483</v>
+        <v>7.153021906652874</v>
       </c>
       <c r="C36">
-        <v>3.877755301180523</v>
+        <v>9.621296289805302</v>
       </c>
       <c r="D36">
-        <v>4.051746310893126</v>
+        <v>8.662314853328116</v>
       </c>
       <c r="E36">
-        <v>4.377398143238986</v>
+        <v>10.18891245577331</v>
       </c>
       <c r="F36">
-        <v>4.135602847222345</v>
+        <v>9.284814944321351</v>
       </c>
       <c r="G36">
-        <v>9.761951753932603</v>
+        <v>19.51139345936347</v>
       </c>
       <c r="H36">
-        <v>4.221545862563561</v>
+        <v>9.855416619352248</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1379,25 +1415,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>7.280576127816124</v>
+        <v>4.894098796973535</v>
       </c>
       <c r="C37">
-        <v>7.765902585115589</v>
+        <v>5.893834182019693</v>
       </c>
       <c r="D37">
-        <v>10.22033526840103</v>
+        <v>6.169019375512664</v>
       </c>
       <c r="E37">
-        <v>10.73258763288206</v>
+        <v>6.32211120565627</v>
       </c>
       <c r="F37">
-        <v>10.11177659395917</v>
+        <v>6.187002005768696</v>
       </c>
       <c r="G37">
-        <v>26.48931822885175</v>
+        <v>14.77292730279378</v>
       </c>
       <c r="H37">
-        <v>9.99215698876154</v>
+        <v>6.201848956099312</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1405,76 +1441,24 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>7.153021906652874</v>
+        <v>6.581327120991655</v>
       </c>
       <c r="C38">
-        <v>9.621296289805302</v>
+        <v>7.928190232987277</v>
       </c>
       <c r="D38">
-        <v>8.662314853328116</v>
+        <v>8.570266711464985</v>
       </c>
       <c r="E38">
-        <v>10.18891245577331</v>
+        <v>9.650383955438434</v>
       </c>
       <c r="F38">
-        <v>9.284814944321351</v>
+        <v>7.727359587585066</v>
       </c>
       <c r="G38">
-        <v>19.51139345936347</v>
+        <v>18.89289433722233</v>
       </c>
       <c r="H38">
-        <v>9.855416619352248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39">
-        <v>4.894098796973535</v>
-      </c>
-      <c r="C39">
-        <v>5.893834182019693</v>
-      </c>
-      <c r="D39">
-        <v>6.169019375512664</v>
-      </c>
-      <c r="E39">
-        <v>6.32211120565627</v>
-      </c>
-      <c r="F39">
-        <v>6.187002005768696</v>
-      </c>
-      <c r="G39">
-        <v>14.77292730279378</v>
-      </c>
-      <c r="H39">
-        <v>6.201848956099312</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40">
-        <v>6.581327120991655</v>
-      </c>
-      <c r="C40">
-        <v>7.928190232987277</v>
-      </c>
-      <c r="D40">
-        <v>8.570266711464985</v>
-      </c>
-      <c r="E40">
-        <v>9.650383955438434</v>
-      </c>
-      <c r="F40">
-        <v>7.727359587585066</v>
-      </c>
-      <c r="G40">
-        <v>18.89289433722233</v>
-      </c>
-      <c r="H40">
         <v>8.569682876293498</v>
       </c>
     </row>
